--- a/Data/Predictions/Logistic Regression/rating_change_model_3/rating_change_model_3_predictions.xlsx
+++ b/Data/Predictions/Logistic Regression/rating_change_model_3/rating_change_model_3_predictions.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4795,7 +4795,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4875,7 +4875,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4895,7 +4895,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5275,7 +5275,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5355,7 +5355,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5935,7 +5935,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6015,7 +6015,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6395,7 +6395,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6615,7 +6615,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6695,7 +6695,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6735,7 +6735,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7035,7 +7035,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7175,7 +7175,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7295,7 +7295,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7335,7 +7335,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7495,7 +7495,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7615,7 +7615,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7655,7 +7655,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7675,7 +7675,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7755,7 +7755,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7775,7 +7775,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7815,7 +7815,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7975,7 +7975,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8175,7 +8175,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8395,7 +8395,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8615,7 +8615,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8695,7 +8695,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8735,7 +8735,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8775,7 +8775,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8795,7 +8795,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8855,7 +8855,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8875,7 +8875,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8895,7 +8895,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8955,7 +8955,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9115,7 +9115,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9135,7 +9135,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9155,7 +9155,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9195,7 +9195,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9215,7 +9215,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9255,7 +9255,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9275,7 +9275,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9335,7 +9335,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9435,7 +9435,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9455,7 +9455,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9495,7 +9495,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9515,7 +9515,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9595,7 +9595,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9675,7 +9675,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9695,7 +9695,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9755,7 +9755,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9775,7 +9775,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9835,7 +9835,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9875,7 +9875,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9895,7 +9895,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9915,7 +9915,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9935,7 +9935,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9955,7 +9955,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9975,7 +9975,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10015,7 +10015,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10035,7 +10035,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10055,7 +10055,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10075,7 +10075,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10095,7 +10095,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10135,7 +10135,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10215,7 +10215,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10235,7 +10235,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10275,7 +10275,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10295,7 +10295,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10315,7 +10315,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10335,7 +10335,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10375,7 +10375,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10395,7 +10395,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10455,7 +10455,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10495,7 +10495,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10555,7 +10555,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10575,7 +10575,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10635,7 +10635,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10735,7 +10735,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10775,7 +10775,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10795,7 +10795,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10855,7 +10855,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10875,7 +10875,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10895,7 +10895,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10935,7 +10935,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10955,7 +10955,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -10975,7 +10975,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11035,7 +11035,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11055,7 +11055,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11075,7 +11075,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11095,7 +11095,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11115,7 +11115,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11135,7 +11135,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11195,7 +11195,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11255,7 +11255,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11275,7 +11275,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11315,7 +11315,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11335,7 +11335,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11355,7 +11355,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11375,7 +11375,7 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11455,7 +11455,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11535,7 +11535,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11575,7 +11575,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11595,7 +11595,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11615,7 +11615,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11655,7 +11655,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11675,7 +11675,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11735,7 +11735,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11755,7 +11755,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11795,7 +11795,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11815,7 +11815,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11835,7 +11835,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11855,7 +11855,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11875,7 +11875,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11895,7 +11895,7 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11915,7 +11915,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -11995,7 +11995,7 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12015,7 +12015,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12095,7 +12095,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12135,7 +12135,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12155,7 +12155,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12175,7 +12175,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12195,7 +12195,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12215,7 +12215,7 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12255,7 +12255,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12275,7 +12275,7 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12295,7 +12295,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12355,7 +12355,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12375,7 +12375,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12395,7 +12395,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12415,7 +12415,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12495,7 +12495,7 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12535,7 +12535,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12615,7 +12615,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12635,7 +12635,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12655,7 +12655,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12675,7 +12675,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12695,7 +12695,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12715,7 +12715,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12735,7 +12735,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12775,7 +12775,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12815,7 +12815,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12855,7 +12855,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12875,7 +12875,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12895,7 +12895,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12935,7 +12935,7 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -12995,7 +12995,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13015,7 +13015,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13035,7 +13035,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13055,7 +13055,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13075,7 +13075,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13095,7 +13095,7 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13115,7 +13115,7 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13175,7 +13175,7 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13195,7 +13195,7 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13235,7 +13235,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13255,7 +13255,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13275,7 +13275,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13295,7 +13295,7 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13335,7 +13335,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13355,7 +13355,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13415,7 +13415,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13435,7 +13435,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13455,7 +13455,7 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13475,7 +13475,7 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13495,7 +13495,7 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13515,7 +13515,7 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13555,7 +13555,7 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13575,7 +13575,7 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13595,7 +13595,7 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13615,7 +13615,7 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13635,7 +13635,7 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13655,7 +13655,7 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13675,7 +13675,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13695,7 +13695,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13715,7 +13715,7 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13755,7 +13755,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13775,7 +13775,7 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13855,7 +13855,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13875,7 +13875,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13895,7 +13895,7 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13915,7 +13915,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13955,7 +13955,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13975,7 +13975,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -13995,7 +13995,7 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14035,7 +14035,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14055,7 +14055,7 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14095,7 +14095,7 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14135,7 +14135,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14175,7 +14175,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14195,7 +14195,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14235,7 +14235,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14275,7 +14275,7 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14295,7 +14295,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14395,7 +14395,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14475,7 +14475,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14495,7 +14495,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14535,7 +14535,7 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14555,7 +14555,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14575,7 +14575,7 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14595,7 +14595,7 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14615,7 +14615,7 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14635,7 +14635,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14675,7 +14675,7 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14695,7 +14695,7 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14735,7 +14735,7 @@
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14775,7 +14775,7 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14795,7 +14795,7 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14815,7 +14815,7 @@
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14855,7 +14855,7 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14875,7 +14875,7 @@
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14895,7 +14895,7 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14915,7 +14915,7 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14935,7 +14935,7 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14955,7 +14955,7 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14975,7 +14975,7 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15015,7 +15015,7 @@
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15035,7 +15035,7 @@
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15055,7 +15055,7 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15095,7 +15095,7 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15115,7 +15115,7 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15135,7 +15135,7 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15175,7 +15175,7 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15195,7 +15195,7 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15235,7 +15235,7 @@
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15255,7 +15255,7 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15275,7 +15275,7 @@
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15315,7 +15315,7 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15335,7 +15335,7 @@
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15355,7 +15355,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15415,7 +15415,7 @@
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15435,7 +15435,7 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15475,7 +15475,7 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15495,7 +15495,7 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15535,7 +15535,7 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15555,7 +15555,7 @@
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15575,7 +15575,7 @@
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15595,7 +15595,7 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15615,7 +15615,7 @@
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15635,7 +15635,7 @@
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15655,7 +15655,7 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15675,7 +15675,7 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15695,7 +15695,7 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15715,7 +15715,7 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15735,7 +15735,7 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15755,7 +15755,7 @@
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15775,7 +15775,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15795,7 +15795,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15815,7 +15815,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15835,7 +15835,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15855,7 +15855,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15875,7 +15875,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15895,7 +15895,7 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15915,7 +15915,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15975,7 +15975,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -15995,7 +15995,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16015,7 +16015,7 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16035,7 +16035,7 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16055,7 +16055,7 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16075,7 +16075,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16095,7 +16095,7 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16135,7 +16135,7 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16155,7 +16155,7 @@
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16175,7 +16175,7 @@
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16215,7 +16215,7 @@
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16235,7 @@
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16435,7 +16435,7 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16455,7 +16455,7 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16475,7 +16475,7 @@
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16495,7 +16495,7 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16535,7 +16535,7 @@
       </c>
       <c r="D805" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16555,7 +16555,7 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16595,7 +16595,7 @@
       </c>
       <c r="D808" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16615,7 +16615,7 @@
       </c>
       <c r="D809" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16635,7 +16635,7 @@
       </c>
       <c r="D810" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16675,7 +16675,7 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16695,7 +16695,7 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16715,7 +16715,7 @@
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16735,7 +16735,7 @@
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16775,7 +16775,7 @@
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16795,7 +16795,7 @@
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16815,7 +16815,7 @@
       </c>
       <c r="D819" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16835,7 +16835,7 @@
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16895,7 +16895,7 @@
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16915,7 +16915,7 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16935,7 +16935,7 @@
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16955,7 +16955,7 @@
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16975,7 +16975,7 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -16995,7 +16995,7 @@
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17015,7 +17015,7 @@
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17035,7 +17035,7 @@
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17055,7 +17055,7 @@
       </c>
       <c r="D831" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17095,7 +17095,7 @@
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17115,7 +17115,7 @@
       </c>
       <c r="D834" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17175,7 +17175,7 @@
       </c>
       <c r="D837" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17235,7 +17235,7 @@
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17255,7 +17255,7 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17335,7 +17335,7 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17355,7 +17355,7 @@
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17395,7 +17395,7 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17435,7 +17435,7 @@
       </c>
       <c r="D850" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17455,7 +17455,7 @@
       </c>
       <c r="D851" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17495,7 +17495,7 @@
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17515,7 +17515,7 @@
       </c>
       <c r="D854" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17535,7 +17535,7 @@
       </c>
       <c r="D855" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17575,7 +17575,7 @@
       </c>
       <c r="D857" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17595,7 +17595,7 @@
       </c>
       <c r="D858" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17615,7 +17615,7 @@
       </c>
       <c r="D859" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="D860" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17655,7 +17655,7 @@
       </c>
       <c r="D861" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17675,7 +17675,7 @@
       </c>
       <c r="D862" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17695,7 +17695,7 @@
       </c>
       <c r="D863" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="D864" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17755,7 +17755,7 @@
       </c>
       <c r="D866" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17775,7 +17775,7 @@
       </c>
       <c r="D867" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17795,7 +17795,7 @@
       </c>
       <c r="D868" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="D869" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17835,7 +17835,7 @@
       </c>
       <c r="D870" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17875,7 +17875,7 @@
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17895,7 +17895,7 @@
       </c>
       <c r="D873" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17915,7 +17915,7 @@
       </c>
       <c r="D874" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17935,7 +17935,7 @@
       </c>
       <c r="D875" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17955,7 +17955,7 @@
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17975,7 +17975,7 @@
       </c>
       <c r="D877" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -17995,7 +17995,7 @@
       </c>
       <c r="D878" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18015,7 +18015,7 @@
       </c>
       <c r="D879" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18035,7 +18035,7 @@
       </c>
       <c r="D880" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18055,7 +18055,7 @@
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18075,7 +18075,7 @@
       </c>
       <c r="D882" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18095,7 +18095,7 @@
       </c>
       <c r="D883" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18135,7 +18135,7 @@
       </c>
       <c r="D885" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18155,7 +18155,7 @@
       </c>
       <c r="D886" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18175,7 +18175,7 @@
       </c>
       <c r="D887" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="D888" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18235,7 +18235,7 @@
       </c>
       <c r="D890" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18255,7 +18255,7 @@
       </c>
       <c r="D891" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18275,7 +18275,7 @@
       </c>
       <c r="D892" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18295,7 +18295,7 @@
       </c>
       <c r="D893" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18315,7 +18315,7 @@
       </c>
       <c r="D894" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18335,7 +18335,7 @@
       </c>
       <c r="D895" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18375,7 +18375,7 @@
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18415,7 +18415,7 @@
       </c>
       <c r="D899" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18435,7 +18435,7 @@
       </c>
       <c r="D900" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18455,7 +18455,7 @@
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18475,7 +18475,7 @@
       </c>
       <c r="D902" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18495,7 +18495,7 @@
       </c>
       <c r="D903" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18515,7 +18515,7 @@
       </c>
       <c r="D904" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18535,7 +18535,7 @@
       </c>
       <c r="D905" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18555,7 +18555,7 @@
       </c>
       <c r="D906" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18575,7 +18575,7 @@
       </c>
       <c r="D907" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="D908" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18615,7 +18615,7 @@
       </c>
       <c r="D909" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18635,7 +18635,7 @@
       </c>
       <c r="D910" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18655,7 +18655,7 @@
       </c>
       <c r="D911" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18675,7 +18675,7 @@
       </c>
       <c r="D912" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18715,7 +18715,7 @@
       </c>
       <c r="D914" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18795,7 +18795,7 @@
       </c>
       <c r="D918" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18815,7 +18815,7 @@
       </c>
       <c r="D919" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18835,7 +18835,7 @@
       </c>
       <c r="D920" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18855,7 +18855,7 @@
       </c>
       <c r="D921" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18895,7 +18895,7 @@
       </c>
       <c r="D923" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="D924" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18935,7 +18935,7 @@
       </c>
       <c r="D925" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18955,7 +18955,7 @@
       </c>
       <c r="D926" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18975,7 +18975,7 @@
       </c>
       <c r="D927" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19015,7 +19015,7 @@
       </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19075,7 +19075,7 @@
       </c>
       <c r="D932" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19095,7 +19095,7 @@
       </c>
       <c r="D933" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19115,7 +19115,7 @@
       </c>
       <c r="D934" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19135,7 +19135,7 @@
       </c>
       <c r="D935" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19155,7 +19155,7 @@
       </c>
       <c r="D936" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19175,7 +19175,7 @@
       </c>
       <c r="D937" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D938" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19215,7 +19215,7 @@
       </c>
       <c r="D939" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19235,7 +19235,7 @@
       </c>
       <c r="D940" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19255,7 +19255,7 @@
       </c>
       <c r="D941" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19275,7 +19275,7 @@
       </c>
       <c r="D942" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19295,7 +19295,7 @@
       </c>
       <c r="D943" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19335,7 +19335,7 @@
       </c>
       <c r="D945" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="D946" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19415,7 +19415,7 @@
       </c>
       <c r="D949" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19475,7 +19475,7 @@
       </c>
       <c r="D952" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19495,7 +19495,7 @@
       </c>
       <c r="D953" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19515,7 +19515,7 @@
       </c>
       <c r="D954" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19535,7 +19535,7 @@
       </c>
       <c r="D955" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19575,7 +19575,7 @@
       </c>
       <c r="D957" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19655,7 +19655,7 @@
       </c>
       <c r="D961" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19675,7 +19675,7 @@
       </c>
       <c r="D962" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19695,7 +19695,7 @@
       </c>
       <c r="D963" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19715,7 +19715,7 @@
       </c>
       <c r="D964" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19735,7 +19735,7 @@
       </c>
       <c r="D965" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19755,7 +19755,7 @@
       </c>
       <c r="D966" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19775,7 +19775,7 @@
       </c>
       <c r="D967" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19795,7 +19795,7 @@
       </c>
       <c r="D968" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19815,7 +19815,7 @@
       </c>
       <c r="D969" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19855,7 +19855,7 @@
       </c>
       <c r="D971" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19895,7 +19895,7 @@
       </c>
       <c r="D973" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19915,7 +19915,7 @@
       </c>
       <c r="D974" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="D975" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19955,7 +19955,7 @@
       </c>
       <c r="D976" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19975,7 +19975,7 @@
       </c>
       <c r="D977" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -19995,7 +19995,7 @@
       </c>
       <c r="D978" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20015,7 +20015,7 @@
       </c>
       <c r="D979" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20035,7 +20035,7 @@
       </c>
       <c r="D980" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20055,7 +20055,7 @@
       </c>
       <c r="D981" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20075,7 +20075,7 @@
       </c>
       <c r="D982" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20095,7 +20095,7 @@
       </c>
       <c r="D983" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20115,7 +20115,7 @@
       </c>
       <c r="D984" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20135,7 +20135,7 @@
       </c>
       <c r="D985" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20155,7 +20155,7 @@
       </c>
       <c r="D986" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="D988" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20215,7 +20215,7 @@
       </c>
       <c r="D989" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20235,7 +20235,7 @@
       </c>
       <c r="D990" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20255,7 +20255,7 @@
       </c>
       <c r="D991" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="D992" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20315,7 +20315,7 @@
       </c>
       <c r="D994" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20335,7 +20335,7 @@
       </c>
       <c r="D995" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20395,7 +20395,7 @@
       </c>
       <c r="D998" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20415,7 +20415,7 @@
       </c>
       <c r="D999" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20435,7 +20435,7 @@
       </c>
       <c r="D1000" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20455,7 +20455,7 @@
       </c>
       <c r="D1001" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20495,7 +20495,7 @@
       </c>
       <c r="D1003" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20515,7 +20515,7 @@
       </c>
       <c r="D1004" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20555,7 +20555,7 @@
       </c>
       <c r="D1006" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20575,7 +20575,7 @@
       </c>
       <c r="D1007" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="D1008" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20635,7 +20635,7 @@
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20695,7 +20695,7 @@
       </c>
       <c r="D1013" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20715,7 +20715,7 @@
       </c>
       <c r="D1014" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20735,7 +20735,7 @@
       </c>
       <c r="D1015" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20755,7 +20755,7 @@
       </c>
       <c r="D1016" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20775,7 +20775,7 @@
       </c>
       <c r="D1017" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20795,7 +20795,7 @@
       </c>
       <c r="D1018" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20815,7 +20815,7 @@
       </c>
       <c r="D1019" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20855,7 +20855,7 @@
       </c>
       <c r="D1021" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20875,7 +20875,7 @@
       </c>
       <c r="D1022" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20895,7 +20895,7 @@
       </c>
       <c r="D1023" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="D1024" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20955,7 +20955,7 @@
       </c>
       <c r="D1026" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -20975,7 +20975,7 @@
       </c>
       <c r="D1027" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21015,7 +21015,7 @@
       </c>
       <c r="D1029" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21035,7 +21035,7 @@
       </c>
       <c r="D1030" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21055,7 +21055,7 @@
       </c>
       <c r="D1031" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="D1032" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21095,7 +21095,7 @@
       </c>
       <c r="D1033" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21115,7 +21115,7 @@
       </c>
       <c r="D1034" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21135,7 +21135,7 @@
       </c>
       <c r="D1035" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21155,7 +21155,7 @@
       </c>
       <c r="D1036" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="D1037" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21195,7 +21195,7 @@
       </c>
       <c r="D1038" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21215,7 +21215,7 @@
       </c>
       <c r="D1039" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21255,7 +21255,7 @@
       </c>
       <c r="D1041" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21275,7 +21275,7 @@
       </c>
       <c r="D1042" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="D1048" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21435,7 +21435,7 @@
       </c>
       <c r="D1050" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21475,7 +21475,7 @@
       </c>
       <c r="D1052" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21495,7 +21495,7 @@
       </c>
       <c r="D1053" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21515,7 +21515,7 @@
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21535,7 +21535,7 @@
       </c>
       <c r="D1055" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21575,7 +21575,7 @@
       </c>
       <c r="D1057" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21595,7 +21595,7 @@
       </c>
       <c r="D1058" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21615,7 +21615,7 @@
       </c>
       <c r="D1059" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21635,7 +21635,7 @@
       </c>
       <c r="D1060" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21675,7 +21675,7 @@
       </c>
       <c r="D1062" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21695,7 +21695,7 @@
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21735,7 +21735,7 @@
       </c>
       <c r="D1065" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21755,7 +21755,7 @@
       </c>
       <c r="D1066" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21775,7 +21775,7 @@
       </c>
       <c r="D1067" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="D1068" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21815,7 +21815,7 @@
       </c>
       <c r="D1069" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21835,7 +21835,7 @@
       </c>
       <c r="D1070" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21855,7 +21855,7 @@
       </c>
       <c r="D1071" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21895,7 +21895,7 @@
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21915,7 +21915,7 @@
       </c>
       <c r="D1074" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21935,7 +21935,7 @@
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="D1076" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21975,7 +21975,7 @@
       </c>
       <c r="D1077" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -21995,7 +21995,7 @@
       </c>
       <c r="D1078" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22015,7 +22015,7 @@
       </c>
       <c r="D1079" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="D1080" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22055,7 +22055,7 @@
       </c>
       <c r="D1081" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22075,7 +22075,7 @@
       </c>
       <c r="D1082" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22095,7 +22095,7 @@
       </c>
       <c r="D1083" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="D1084" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22135,7 +22135,7 @@
       </c>
       <c r="D1085" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22175,7 +22175,7 @@
       </c>
       <c r="D1087" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="D1088" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22215,7 +22215,7 @@
       </c>
       <c r="D1089" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22235,7 +22235,7 @@
       </c>
       <c r="D1090" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22255,7 +22255,7 @@
       </c>
       <c r="D1091" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="D1092" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22295,7 +22295,7 @@
       </c>
       <c r="D1093" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22315,7 +22315,7 @@
       </c>
       <c r="D1094" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22335,7 +22335,7 @@
       </c>
       <c r="D1095" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="D1096" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22375,7 +22375,7 @@
       </c>
       <c r="D1097" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22395,7 +22395,7 @@
       </c>
       <c r="D1098" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22415,7 +22415,7 @@
       </c>
       <c r="D1099" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22475,7 +22475,7 @@
       </c>
       <c r="D1102" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22495,7 +22495,7 @@
       </c>
       <c r="D1103" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22515,7 +22515,7 @@
       </c>
       <c r="D1104" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22535,7 +22535,7 @@
       </c>
       <c r="D1105" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22635,7 +22635,7 @@
       </c>
       <c r="D1110" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22695,7 +22695,7 @@
       </c>
       <c r="D1113" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22715,7 +22715,7 @@
       </c>
       <c r="D1114" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22735,7 +22735,7 @@
       </c>
       <c r="D1115" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Upgrade Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="D1116" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22775,7 +22775,7 @@
       </c>
       <c r="D1117" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22795,7 +22795,7 @@
       </c>
       <c r="D1118" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
@@ -22815,7 +22815,7 @@
       </c>
       <c r="D1119" t="inlineStr">
         <is>
-          <t>Downgrade Since Last Fixed Quarter Date</t>
+          <t>Same As Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
